--- a/src/main/java/testdata/skillsmart-employee-template.xlsx
+++ b/src/main/java/testdata/skillsmart-employee-template.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="Lookups" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Lookups" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Gender</t>
   </si>
@@ -26,6 +31,15 @@
     <t>Ethnicity</t>
   </si>
   <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -83,49 +97,85 @@
     <t>SSN</t>
   </si>
   <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>20284 street1</t>
-  </si>
-  <si>
-    <t>State St</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Vet Status</t>
-  </si>
-  <si>
-    <t>chicago</t>
-  </si>
-  <si>
-    <t>50804</t>
-  </si>
-  <si>
-    <t>214-363-5474</t>
-  </si>
-  <si>
-    <t>123-363-5478</t>
-  </si>
-  <si>
-    <t>Meena, suresh</t>
-  </si>
-  <si>
-    <t>Mounish, Anish</t>
-  </si>
-  <si>
-    <t>3122</t>
-  </si>
-  <si>
-    <t>4758</t>
-  </si>
-  <si>
-    <t>1545481242</t>
-  </si>
-  <si>
-    <t>361441242</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>17th Street</t>
+  </si>
+  <si>
+    <t>Brokovalli</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>4543 Heritage Drive</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>T2V 2W2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>20833</t>
+  </si>
+  <si>
+    <t>124-754-7581</t>
+  </si>
+  <si>
+    <t>124-754-1251</t>
+  </si>
+  <si>
+    <t>124-754-7141</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>Gani</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>5142</t>
+  </si>
+  <si>
+    <t>9367</t>
+  </si>
+  <si>
+    <t>6389</t>
+  </si>
+  <si>
+    <t>15475845</t>
+  </si>
+  <si>
+    <t>15473</t>
+  </si>
+  <si>
+    <t>34545</t>
   </si>
 </sst>
 </file>
@@ -141,9 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0288D1"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -188,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -202,6 +251,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,6 +263,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -471,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,132 +534,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="22.7109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="10" width="21" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="22.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <v>0</v>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -618,13 +725,13 @@
           <x14:formula1>
             <xm:f>Lookups!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ethnicity">
           <x14:formula1>
             <xm:f>Lookups!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -655,7 +762,7 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,46 +770,46 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/skillsmart-employee-template.xlsx
+++ b/src/main/java/testdata/skillsmart-employee-template.xlsx
@@ -109,9 +109,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Suresh</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -145,37 +142,40 @@
     <t>124-754-7141</t>
   </si>
   <si>
-    <t>Rani</t>
-  </si>
-  <si>
-    <t>Gani</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
-    <t>Anirudh</t>
-  </si>
-  <si>
-    <t>5142</t>
-  </si>
-  <si>
-    <t>9367</t>
-  </si>
-  <si>
-    <t>6389</t>
-  </si>
-  <si>
-    <t>15475845</t>
-  </si>
-  <si>
-    <t>15473</t>
-  </si>
-  <si>
-    <t>34545</t>
+    <t>Easwar</t>
+  </si>
+  <si>
+    <t>Pawan</t>
+  </si>
+  <si>
+    <t>Suren1</t>
+  </si>
+  <si>
+    <t>Ranish1</t>
+  </si>
+  <si>
+    <t>Gani1</t>
+  </si>
+  <si>
+    <t>8124</t>
+  </si>
+  <si>
+    <t>9371</t>
+  </si>
+  <si>
+    <t>9347</t>
+  </si>
+  <si>
+    <t>1758245</t>
+  </si>
+  <si>
+    <t>85211515</t>
+  </si>
+  <si>
+    <t>563145155</t>
+  </si>
+  <si>
+    <t>Marthand</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,25 +593,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>27</v>
@@ -620,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
@@ -629,30 +629,30 @@
         <v>8</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>27</v>
@@ -661,7 +661,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
@@ -670,39 +670,39 @@
         <v>7</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/skillsmart-employee-template.xlsx
+++ b/src/main/java/testdata/skillsmart-employee-template.xlsx
@@ -142,12 +142,6 @@
     <t>124-754-7141</t>
   </si>
   <si>
-    <t>Easwar</t>
-  </si>
-  <si>
-    <t>Pawan</t>
-  </si>
-  <si>
     <t>Suren1</t>
   </si>
   <si>
@@ -157,25 +151,31 @@
     <t>Gani1</t>
   </si>
   <si>
-    <t>8124</t>
-  </si>
-  <si>
-    <t>9371</t>
-  </si>
-  <si>
-    <t>9347</t>
-  </si>
-  <si>
-    <t>1758245</t>
-  </si>
-  <si>
-    <t>85211515</t>
-  </si>
-  <si>
-    <t>563145155</t>
-  </si>
-  <si>
-    <t>Marthand</t>
+    <t>Marth</t>
+  </si>
+  <si>
+    <t>Easw</t>
+  </si>
+  <si>
+    <t>Pawa</t>
+  </si>
+  <si>
+    <t>4152</t>
+  </si>
+  <si>
+    <t>9385</t>
+  </si>
+  <si>
+    <t>9311</t>
+  </si>
+  <si>
+    <t>1758245425</t>
+  </si>
+  <si>
+    <t>8521151545</t>
+  </si>
+  <si>
+    <t>56314515574</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,7 +537,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,19 +593,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -634,19 +634,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
@@ -675,19 +675,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>31</v>
